--- a/egghead.xlsx
+++ b/egghead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>EggHead</t>
   </si>
@@ -282,7 +282,13 @@
     <t>Platforms</t>
   </si>
   <si>
-    <t>Mars</t>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/prateek3189/mercury-react</t>
   </si>
 </sst>
 </file>
@@ -390,25 +396,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -711,53 +731,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>43095</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -766,402 +793,421 @@
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
@@ -1198,9 +1244,10 @@
     <hyperlink ref="C37" r:id="rId32"/>
     <hyperlink ref="C38" r:id="rId33"/>
     <hyperlink ref="C39" r:id="rId34"/>
+    <hyperlink ref="D5" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 

--- a/egghead.xlsx
+++ b/egghead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>EggHead</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>https://github.com/prateek3189/mercury-react</t>
+  </si>
+  <si>
+    <t>https://github.com/prateek3189/venus-react</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,38 +405,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,472 +766,470 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>43095</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>43113</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A57:D57"/>
@@ -1208,6 +1238,16 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
@@ -1245,9 +1285,10 @@
     <hyperlink ref="C38" r:id="rId33"/>
     <hyperlink ref="C39" r:id="rId34"/>
     <hyperlink ref="D5" r:id="rId35"/>
+    <hyperlink ref="D6" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
